--- a/Server Mod List.xlsx
+++ b/Server Mod List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\My Documents\Lads-Modded-Minecraft-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB81FC8-E8F5-471B-BA3F-A19B3D2A00EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56091F26-A1BB-49B9-A7C3-17E1AA03D2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{55D671F0-0FE6-417B-B157-61E7F92E80E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{55D671F0-0FE6-417B-B157-61E7F92E80E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="279">
   <si>
     <t>Mod Name</t>
   </si>
@@ -889,6 +889,15 @@
   </si>
   <si>
     <t>Improves advancement screen readability</t>
+  </si>
+  <si>
+    <t>Conduits Prevent Drowned</t>
+  </si>
+  <si>
+    <t>Conduits prevent spawning of drowned within range</t>
+  </si>
+  <si>
+    <t>Tweaks</t>
   </si>
 </sst>
 </file>
@@ -1546,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73755EB-73C1-4710-BFA9-A8996EFD459F}">
-  <dimension ref="B1:C148"/>
+  <dimension ref="B1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:B99"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147:C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,22 +2389,49 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C148" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="14" t="s">
+    <row r="149" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C149" s="15" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B115:C115"/>
@@ -2412,25 +2448,6 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2438,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA6AE23-A016-4677-B7E3-2CD8F0CC3272}">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3549,25 +3566,25 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="3" t="s">
-        <v>10</v>
+      <c r="B65" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" t="s">
-        <v>103</v>
+        <v>277</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
@@ -3576,15 +3593,15 @@
         <v>25</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>72</v>
@@ -3593,32 +3610,32 @@
         <v>25</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>198</v>
+        <v>25</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -3627,7 +3644,7 @@
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>198</v>
@@ -3635,7 +3652,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -3644,7 +3661,7 @@
         <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>198</v>
@@ -3652,7 +3669,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -3661,7 +3678,7 @@
         <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>198</v>
@@ -3669,7 +3686,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
@@ -3678,7 +3695,7 @@
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>198</v>
@@ -3686,7 +3703,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
         <v>72</v>
@@ -3695,7 +3712,7 @@
         <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>198</v>
@@ -3703,7 +3720,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
         <v>72</v>
@@ -3712,7 +3729,7 @@
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>198</v>
@@ -3720,7 +3737,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
         <v>72</v>
@@ -3729,7 +3746,7 @@
         <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>198</v>
@@ -3737,7 +3754,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
         <v>72</v>
@@ -3745,8 +3762,8 @@
       <c r="D76" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>183</v>
+      <c r="E76" t="s">
+        <v>142</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>198</v>
@@ -3754,7 +3771,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
         <v>72</v>
@@ -3763,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>198</v>
@@ -3771,7 +3788,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
@@ -3780,7 +3797,7 @@
         <v>27</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>198</v>
@@ -3788,7 +3805,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
         <v>72</v>
@@ -3797,7 +3814,7 @@
         <v>27</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>198</v>
@@ -3805,7 +3822,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
         <v>72</v>
@@ -3814,7 +3831,7 @@
         <v>27</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>198</v>
@@ -3822,7 +3839,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
         <v>72</v>
@@ -3831,7 +3848,7 @@
         <v>27</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>198</v>
@@ -3839,7 +3856,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
         <v>72</v>
@@ -3848,7 +3865,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>198</v>
@@ -3856,7 +3873,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
         <v>72</v>
@@ -3865,7 +3882,7 @@
         <v>27</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>198</v>
@@ -3873,7 +3890,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
         <v>72</v>
@@ -3882,7 +3899,7 @@
         <v>27</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>198</v>
@@ -3890,7 +3907,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C85" t="s">
         <v>72</v>
@@ -3899,7 +3916,7 @@
         <v>27</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>198</v>
@@ -3907,7 +3924,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
         <v>72</v>
@@ -3916,24 +3933,24 @@
         <v>27</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>198</v>
@@ -3941,7 +3958,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>64</v>
@@ -3950,7 +3967,7 @@
         <v>27</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>198</v>
@@ -3958,7 +3975,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>64</v>
@@ -3966,8 +3983,8 @@
       <c r="D89" t="s">
         <v>27</v>
       </c>
-      <c r="E89" t="s">
-        <v>86</v>
+      <c r="E89" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>198</v>
@@ -3975,7 +3992,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
         <v>64</v>
@@ -3984,7 +4001,7 @@
         <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>198</v>
@@ -3992,7 +4009,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
         <v>64</v>
@@ -4001,7 +4018,7 @@
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>198</v>
@@ -4009,7 +4026,7 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
         <v>64</v>
@@ -4018,7 +4035,7 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>198</v>
@@ -4026,41 +4043,58 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C93" t="s">
         <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F93" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="E93" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
         <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E94" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F94">
-    <sortCondition ref="C94"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F95">
+    <sortCondition ref="C95"/>
   </sortState>
   <conditionalFormatting sqref="F24 F31 E47">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">

--- a/Server Mod List.xlsx
+++ b/Server Mod List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\My Documents\Lads-Modded-Minecraft-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56091F26-A1BB-49B9-A7C3-17E1AA03D2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF0C90B-0EED-4476-8727-77305E75CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{55D671F0-0FE6-417B-B157-61E7F92E80E9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="280">
   <si>
     <t>Mod Name</t>
   </si>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t>Tweaks</t>
+  </si>
+  <si>
+    <t>Better FPS</t>
   </si>
 </sst>
 </file>
@@ -2413,25 +2416,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B115:C115"/>
@@ -2448,6 +2432,25 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2455,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA6AE23-A016-4677-B7E3-2CD8F0CC3272}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3209,59 +3212,59 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>198</v>
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
-        <v>80</v>
+      <c r="B47" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
@@ -3270,15 +3273,15 @@
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
-        <v>82</v>
+      <c r="B48" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
@@ -3287,7 +3290,7 @@
         <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>198</v>
@@ -3295,16 +3298,16 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>198</v>
@@ -3312,16 +3315,16 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>198</v>
@@ -3329,75 +3332,75 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>198</v>
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C54" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="C55" t="s">
         <v>223</v>
@@ -3405,16 +3408,16 @@
       <c r="D55" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>190</v>
+      <c r="E55" t="s">
+        <v>140</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="2" t="s">
-        <v>124</v>
+      <c r="B56" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="C56" t="s">
         <v>223</v>
@@ -3422,8 +3425,8 @@
       <c r="D56" t="s">
         <v>27</v>
       </c>
-      <c r="E56" t="s">
-        <v>144</v>
+      <c r="E56" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>198</v>
@@ -3431,7 +3434,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>223</v>
@@ -3440,7 +3443,7 @@
         <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>198</v>
@@ -3448,7 +3451,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
         <v>223</v>
@@ -3457,7 +3460,7 @@
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>198</v>
@@ -3465,7 +3468,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
         <v>223</v>
@@ -3474,7 +3477,7 @@
         <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>198</v>
@@ -3482,7 +3485,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
         <v>223</v>
@@ -3490,16 +3493,16 @@
       <c r="D60" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>157</v>
+      <c r="E60" t="s">
+        <v>147</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
-        <v>159</v>
+      <c r="B61" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C61" t="s">
         <v>223</v>
@@ -3508,7 +3511,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>198</v>
@@ -3516,7 +3519,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
         <v>223</v>
@@ -3525,7 +3528,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>198</v>
@@ -3533,7 +3536,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
         <v>223</v>
@@ -3542,15 +3545,15 @@
         <v>27</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="2" t="s">
-        <v>212</v>
+      <c r="B64" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="C64" t="s">
         <v>223</v>
@@ -3559,7 +3562,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>198</v>
@@ -3567,41 +3570,41 @@
     </row>
     <row r="65" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>278</v>
       </c>
-      <c r="D65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" t="s">
-        <v>103</v>
+      <c r="F66" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
         <v>72</v>
@@ -3610,15 +3613,15 @@
         <v>25</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -3627,32 +3630,32 @@
         <v>25</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>198</v>
+        <v>25</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -3661,7 +3664,7 @@
         <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>198</v>
@@ -3669,7 +3672,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -3678,7 +3681,7 @@
         <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>198</v>
@@ -3686,7 +3689,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
@@ -3695,7 +3698,7 @@
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>198</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>72</v>
@@ -3712,7 +3715,7 @@
         <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>198</v>
@@ -3720,7 +3723,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
         <v>72</v>
@@ -3729,7 +3732,7 @@
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>198</v>
@@ -3737,7 +3740,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
         <v>72</v>
@@ -3746,7 +3749,7 @@
         <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>198</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
         <v>72</v>
@@ -3763,7 +3766,7 @@
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>198</v>
@@ -3771,7 +3774,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
         <v>72</v>
@@ -3779,8 +3782,8 @@
       <c r="D77" t="s">
         <v>27</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>183</v>
+      <c r="E77" t="s">
+        <v>142</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>198</v>
@@ -3788,7 +3791,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
@@ -3797,7 +3800,7 @@
         <v>27</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>198</v>
@@ -3805,7 +3808,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
         <v>72</v>
@@ -3814,7 +3817,7 @@
         <v>27</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>198</v>
@@ -3822,7 +3825,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
         <v>72</v>
@@ -3831,7 +3834,7 @@
         <v>27</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>198</v>
@@ -3839,7 +3842,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
         <v>72</v>
@@ -3848,7 +3851,7 @@
         <v>27</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>198</v>
@@ -3856,7 +3859,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
         <v>72</v>
@@ -3865,7 +3868,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>198</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
         <v>72</v>
@@ -3882,7 +3885,7 @@
         <v>27</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>198</v>
@@ -3890,7 +3893,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
         <v>72</v>
@@ -3899,7 +3902,7 @@
         <v>27</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>198</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
         <v>72</v>
@@ -3916,7 +3919,7 @@
         <v>27</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>198</v>
@@ -3924,7 +3927,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C86" t="s">
         <v>72</v>
@@ -3933,7 +3936,7 @@
         <v>27</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>198</v>
@@ -3941,7 +3944,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="C87" t="s">
         <v>72</v>
@@ -3950,24 +3953,24 @@
         <v>27</v>
       </c>
       <c r="E87" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>198</v>
@@ -3975,7 +3978,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>64</v>
@@ -3984,7 +3987,7 @@
         <v>27</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>198</v>
@@ -3992,7 +3995,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
         <v>64</v>
@@ -4000,8 +4003,8 @@
       <c r="D90" t="s">
         <v>27</v>
       </c>
-      <c r="E90" t="s">
-        <v>86</v>
+      <c r="E90" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>198</v>
@@ -4009,7 +4012,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
         <v>64</v>
@@ -4018,7 +4021,7 @@
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>198</v>
@@ -4026,7 +4029,7 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C92" t="s">
         <v>64</v>
@@ -4035,7 +4038,7 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>198</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
         <v>64</v>
@@ -4052,7 +4055,7 @@
         <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>198</v>
@@ -4060,41 +4063,58 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
         <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="E94" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
         <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E95" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F96" s="5" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F95">
-    <sortCondition ref="C95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F96">
+    <sortCondition ref="C96"/>
   </sortState>
   <conditionalFormatting sqref="F24 F31 E47">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">

--- a/Server Mod List.xlsx
+++ b/Server Mod List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\My Documents\Lads-Modded-Minecraft-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF0C90B-0EED-4476-8727-77305E75CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DC8E61-F93B-4923-BE25-1D88173CE26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{55D671F0-0FE6-417B-B157-61E7F92E80E9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="315">
   <si>
     <t>Mod Name</t>
   </si>
@@ -687,9 +687,6 @@
     <t>Overhauls jungle temples</t>
   </si>
   <si>
-    <t>Performance, hopefully</t>
-  </si>
-  <si>
     <t>Items stay in interface, can be repaired with iron blocks, name tags are free and can be used with shift right click</t>
   </si>
   <si>
@@ -900,7 +897,115 @@
     <t>Tweaks</t>
   </si>
   <si>
-    <t>Better FPS</t>
+    <t>Canary</t>
+  </si>
+  <si>
+    <t>FerriteCore</t>
+  </si>
+  <si>
+    <t>Fix GPU Memory Leak</t>
+  </si>
+  <si>
+    <t>Lazy DataFixer</t>
+  </si>
+  <si>
+    <t>Lightspeed</t>
+  </si>
+  <si>
+    <t>Magnesium/Rubidium Extras</t>
+  </si>
+  <si>
+    <t>Memory Settings</t>
+  </si>
+  <si>
+    <t>MemoryLeakFix</t>
+  </si>
+  <si>
+    <t>Pluto</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Entity Collision FPS Fix</t>
+  </si>
+  <si>
+    <t>Better FPS - Render Distance</t>
+  </si>
+  <si>
+    <t>Changes how render range behaves</t>
+  </si>
+  <si>
+    <t>Generally better performance, hopefully</t>
+  </si>
+  <si>
+    <t>General purpose optimization</t>
+  </si>
+  <si>
+    <t>Memory usage optimizations</t>
+  </si>
+  <si>
+    <t>Fixes GPU memory leak</t>
+  </si>
+  <si>
+    <t>Increases boot speed</t>
+  </si>
+  <si>
+    <t>Further fixes to go along with Embeddium</t>
+  </si>
+  <si>
+    <t>Settings menu when you get memory errors to help debug</t>
+  </si>
+  <si>
+    <t>Another memory leak fix</t>
+  </si>
+  <si>
+    <t>Network optimization</t>
+  </si>
+  <si>
+    <t>Don't recalculate entity collision rendering unless necessary</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Server Performance</t>
+  </si>
+  <si>
+    <t>Farsight</t>
+  </si>
+  <si>
+    <t>Structure Essentials</t>
+  </si>
+  <si>
+    <t>Recipe Essentials</t>
+  </si>
+  <si>
+    <t>Client Crafting</t>
+  </si>
+  <si>
+    <t>Chunk Sending</t>
+  </si>
+  <si>
+    <t>Fix several connection problems</t>
+  </si>
+  <si>
+    <t>Smooth chunk saving</t>
+  </si>
+  <si>
+    <t>Allows clients to have different render view than server</t>
+  </si>
+  <si>
+    <t>Speeds up structure location (treasure maps, compasses, etc.)</t>
+  </si>
+  <si>
+    <t>Fixes and improvements around crafting and autocrafting</t>
+  </si>
+  <si>
+    <t>Removes network delay from crafting</t>
+  </si>
+  <si>
+    <t>Optimizes chunk packet delivery</t>
   </si>
 </sst>
 </file>
@@ -1573,19 +1678,19 @@
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>128</v>
@@ -1597,7 +1702,7 @@
     </row>
     <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="19"/>
     </row>
@@ -1614,7 +1719,7 @@
         <v>148</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -1631,7 +1736,7 @@
     </row>
     <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="19"/>
     </row>
@@ -1728,7 +1833,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
@@ -1737,7 +1842,7 @@
     </row>
     <row r="25" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="19"/>
     </row>
@@ -1776,13 +1881,13 @@
     <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="19"/>
     </row>
@@ -1791,7 +1896,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -1800,7 +1905,7 @@
     </row>
     <row r="37" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" s="19"/>
     </row>
@@ -1809,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -1826,7 +1931,7 @@
     </row>
     <row r="41" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C41" s="19"/>
     </row>
@@ -1835,19 +1940,19 @@
         <v>52</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="21"/>
     </row>
     <row r="47" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C47" s="19"/>
     </row>
@@ -1882,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
@@ -1891,7 +1996,7 @@
     </row>
     <row r="54" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C54" s="19"/>
     </row>
@@ -1912,7 +2017,7 @@
     </row>
     <row r="60" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C60" s="19"/>
     </row>
@@ -1938,7 +2043,7 @@
     </row>
     <row r="64" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="19"/>
     </row>
@@ -1955,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
@@ -1964,7 +2069,7 @@
     </row>
     <row r="68" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B68" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C68" s="19"/>
     </row>
@@ -1985,7 +2090,7 @@
     </row>
     <row r="74" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C74" s="19"/>
     </row>
@@ -1994,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
@@ -2002,7 +2107,7 @@
         <v>14</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
@@ -2011,7 +2116,7 @@
     </row>
     <row r="78" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B78" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C78" s="19"/>
     </row>
@@ -2020,7 +2125,7 @@
         <v>62</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2032,7 +2137,7 @@
     </row>
     <row r="84" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B84" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C84" s="19"/>
     </row>
@@ -2054,10 +2159,10 @@
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
@@ -2065,7 +2170,7 @@
         <v>19</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
@@ -2080,10 +2185,10 @@
     </row>
     <row r="91" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2095,7 +2200,7 @@
     </row>
     <row r="96" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B96" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C96" s="19"/>
     </row>
@@ -2120,7 +2225,7 @@
         <v>68</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
@@ -2129,7 +2234,7 @@
     </row>
     <row r="101" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B101" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C101" s="19"/>
     </row>
@@ -2138,7 +2243,7 @@
         <v>77</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
@@ -2146,7 +2251,7 @@
         <v>83</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
@@ -2155,7 +2260,7 @@
     </row>
     <row r="105" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B105" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C105" s="19"/>
     </row>
@@ -2184,7 +2289,7 @@
     </row>
     <row r="112" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B112" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C112" s="19"/>
     </row>
@@ -2193,7 +2298,7 @@
         <v>59</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
@@ -2202,16 +2307,16 @@
     </row>
     <row r="115" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B115" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C115" s="19"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
@@ -2220,7 +2325,7 @@
     </row>
     <row r="118" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B118" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" s="19"/>
     </row>
@@ -2241,7 +2346,7 @@
     </row>
     <row r="124" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B124" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C124" s="19"/>
     </row>
@@ -2267,7 +2372,7 @@
     </row>
     <row r="128" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B128" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C128" s="19"/>
     </row>
@@ -2284,7 +2389,7 @@
         <v>108</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
@@ -2316,13 +2421,13 @@
         <v>180</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C138" s="21"/>
     </row>
@@ -2339,7 +2444,7 @@
         <v>124</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
@@ -2379,7 +2484,7 @@
         <v>159</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
@@ -2387,15 +2492,15 @@
         <v>167</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.3">
@@ -2408,14 +2513,33 @@
     </row>
     <row r="149" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B149" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B115:C115"/>
@@ -2432,25 +2556,6 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2458,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA6AE23-A016-4677-B7E3-2CD8F0CC3272}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -2859,7 +2964,7 @@
         <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -2876,7 +2981,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -2893,7 +2998,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -2950,7 +3055,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>198</v>
@@ -2970,7 +3075,7 @@
         <v>199</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -3106,7 +3211,7 @@
         <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -3145,7 +3250,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -3154,7 +3259,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>198</v>
@@ -3202,367 +3307,367 @@
         <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>279</v>
+      <c r="B44" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="C44" t="s">
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D63" t="s">
         <v>25</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E63" t="s">
         <v>91</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D64" t="s">
         <v>20</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E64" t="s">
         <v>92</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" t="s">
-        <v>223</v>
-      </c>
-      <c r="D55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" t="s">
-        <v>223</v>
-      </c>
-      <c r="D59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" t="s">
-        <v>223</v>
-      </c>
-      <c r="D64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>198</v>
@@ -3570,339 +3675,339 @@
     </row>
     <row r="65" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C65" t="s">
-        <v>223</v>
-      </c>
-      <c r="D65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="2" t="s">
+      <c r="F83" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="C66" t="s">
-        <v>278</v>
-      </c>
-      <c r="D66" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s">
-        <v>96</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" t="s">
-        <v>99</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" t="s">
-        <v>150</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" t="s">
-        <v>142</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C82" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>198</v>
@@ -3910,58 +4015,58 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
         <v>72</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>198</v>
+        <v>31</v>
+      </c>
+      <c r="F85" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
         <v>72</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>198</v>
+        <v>32</v>
+      </c>
+      <c r="F86" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>72</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>198</v>
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>274</v>
+        <v>71</v>
       </c>
       <c r="C88" t="s">
         <v>72</v>
@@ -3969,152 +4074,458 @@
       <c r="D88" t="s">
         <v>27</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>275</v>
+      <c r="E88" t="s">
+        <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" t="s">
+        <v>150</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C107" t="s">
         <v>64</v>
       </c>
-      <c r="D89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="5" t="s">
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="2" t="s">
+      <c r="F107" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C108" t="s">
         <v>64</v>
       </c>
-      <c r="D90" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="2" t="s">
+      <c r="F108" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C109" t="s">
         <v>64</v>
       </c>
-      <c r="D91" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="2" t="s">
+      <c r="F109" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C110" t="s">
         <v>64</v>
       </c>
-      <c r="D92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
         <v>129</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="2" t="s">
+      <c r="F110" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C111" t="s">
         <v>64</v>
       </c>
-      <c r="D93" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
         <v>141</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="2" t="s">
+      <c r="F111" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C112" t="s">
         <v>64</v>
       </c>
-      <c r="D94" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" t="s">
         <v>143</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="2" t="s">
+      <c r="F112" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C113" t="s">
         <v>64</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D113" t="s">
         <v>25</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F113" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="2" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C114" t="s">
         <v>64</v>
       </c>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="5" t="s">
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F114" s="5" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F96">
-    <sortCondition ref="C96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F114">
+    <sortCondition ref="C2:C114"/>
   </sortState>
   <conditionalFormatting sqref="F24 F31 E47">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
